--- a/bus_202/data/group_3_4.xlsx
+++ b/bus_202/data/group_3_4.xlsx
@@ -1,43 +1,676 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B670661C-1A7D-4F75-AECB-C7B420D3AB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="600" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{35ACBF78-C7E1-4C13-B0C2-AD9DC936234A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus 202 Data Analysis(Sheet1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
+  <si>
+    <t>Hometown</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Williams School</t>
+  </si>
+  <si>
+    <t>STEM</t>
+  </si>
+  <si>
+    <t>Humanities and Arts</t>
+  </si>
+  <si>
+    <t>Spartanburg</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Studies </t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>CBSC</t>
+  </si>
+  <si>
+    <t>Rumson</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Communications </t>
+  </si>
+  <si>
+    <t>PIttsburgh</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smyrna </t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politics </t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Chesnut Hill</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Orleans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philosophy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Medicine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Bern </t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Business Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexington </t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociology </t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroscience </t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Forest </t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Palm Beach Gardens</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Downers Grove</t>
+  </si>
+  <si>
+    <t>Manhasset</t>
+  </si>
+  <si>
+    <t>Hinsdale</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Bronxville</t>
+  </si>
+  <si>
+    <t>Danville</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Art Studio</t>
+  </si>
+  <si>
+    <t>Goshen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham </t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco </t>
+  </si>
+  <si>
+    <t>Strategic Communications</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Hannibal</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t>Studio Art</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Creative Writing</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Greenwich</t>
+  </si>
+  <si>
+    <t>Beckley</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>St. Simon's Island</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Boca Raton</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles</t>
+  </si>
+  <si>
+    <t>Classics</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +678,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -79,39 +901,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +966,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +1018,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +1096,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +1104,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +1175,1765 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF36F33-48C5-412D-BECC-616B8FF08E15}">
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>